--- a/2019 OA Database Review - Submit a Database (Responses).xlsx
+++ b/2019 OA Database Review - Submit a Database (Responses).xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\huckleberry\redirect$\rmckernan\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="1456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="1457">
   <si>
     <t>Timestamp</t>
   </si>
@@ -4439,24 +4447,32 @@
   <si>
     <t>Link not available.  Contact information: If you have a disability and are having trouble accessing information on this website or need materials in an alternate format, contact web-accessibility@cornell.edu for assistance.</t>
   </si>
+  <si>
+    <t>adding some text to make a change</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4464,63 +4480,328 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N276"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A277" sqref="A277"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.57"/>
-    <col customWidth="1" min="2" max="2" width="38.0"/>
-    <col customWidth="1" min="3" max="5" width="21.57"/>
-    <col customWidth="1" min="6" max="6" width="38.57"/>
-    <col customWidth="1" min="7" max="13" width="21.57"/>
-    <col customWidth="1" min="14" max="14" width="186.43"/>
-    <col customWidth="1" min="15" max="20" width="21.57"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
+    <col min="7" max="13" width="21.5703125" customWidth="1"/>
+    <col min="14" max="14" width="186.42578125" customWidth="1"/>
+    <col min="15" max="20" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4564,9 +4845,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>43640.48336827546</v>
+        <v>43640.483368275462</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -4596,9 +4877,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>43640.49742413194</v>
+        <v>43640.497424131943</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -4625,9 +4906,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>43641.32167884259</v>
+        <v>43641.321678842593</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
@@ -4663,9 +4944,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>43641.33712010417</v>
+        <v>43641.337120104166</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>36</v>
@@ -4701,9 +4982,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>43641.34427296296</v>
+        <v>43641.344272962961</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>43</v>
@@ -4736,7 +5017,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>43641.354816273146</v>
       </c>
@@ -4774,9 +5055,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>43643.41834900463</v>
+        <v>43643.418349004627</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>55</v>
@@ -4809,9 +5090,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>43643.44156043982</v>
+        <v>43643.441560439816</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>62</v>
@@ -4850,9 +5131,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>43644.4525430787</v>
+        <v>43644.452543078703</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>72</v>
@@ -4876,9 +5157,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>43644.45991373842</v>
+        <v>43644.459913738421</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>75</v>
@@ -4902,9 +5183,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>43647.41380896991</v>
+        <v>43647.413808969912</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>78</v>
@@ -4943,7 +5224,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>43647.434269861114</v>
       </c>
@@ -4978,9 +5259,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>43647.43520357639</v>
+        <v>43647.435203576388</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>95</v>
@@ -5013,9 +5294,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>43647.440124375</v>
+        <v>43647.440124375004</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>99</v>
@@ -5048,9 +5329,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>43647.58041821759</v>
+        <v>43647.580418217593</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>106</v>
@@ -5086,9 +5367,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>43647.5998631713</v>
+        <v>43647.599863171301</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>114</v>
@@ -5124,7 +5405,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>43647.623785185184</v>
       </c>
@@ -5156,7 +5437,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" ht="19.5" customHeight="1">
+    <row r="19" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>43647.625695462964</v>
       </c>
@@ -5188,9 +5469,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>43647.62818223379</v>
+        <v>43647.628182233791</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>133</v>
@@ -5217,9 +5498,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>43647.62983149306</v>
+        <v>43647.629831493061</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>137</v>
@@ -5249,7 +5530,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>43647.631364664354</v>
       </c>
@@ -5281,9 +5562,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>43647.7093509375</v>
+        <v>43647.709350937497</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>148</v>
@@ -5319,7 +5600,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>43648.60136940972</v>
       </c>
@@ -5354,7 +5635,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>43648.603152129625</v>
       </c>
@@ -5383,9 +5664,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>43648.60459523148</v>
+        <v>43648.604595231482</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>165</v>
@@ -5412,9 +5693,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>43648.60626513889</v>
+        <v>43648.606265138893</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>169</v>
@@ -5441,9 +5722,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>43648.61239212963</v>
+        <v>43648.612392129631</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>173</v>
@@ -5470,9 +5751,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>43649.66925302084</v>
+        <v>43649.669253020838</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>176</v>
@@ -5505,9 +5786,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>43649.67639525463</v>
+        <v>43649.676395254632</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>182</v>
@@ -5540,7 +5821,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>43649.688124224536</v>
       </c>
@@ -5578,9 +5859,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>43650.4220937963</v>
+        <v>43650.422093796296</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>194</v>
@@ -5616,9 +5897,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>43650.42980741899</v>
+        <v>43650.429807418986</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>201</v>
@@ -5651,9 +5932,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>43650.43320359953</v>
+        <v>43650.433203599532</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>207</v>
@@ -5686,7 +5967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>43650.441643865735</v>
       </c>
@@ -5724,9 +6005,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>43650.44172966435</v>
+        <v>43650.441729664351</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>220</v>
@@ -5762,9 +6043,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>43650.44252865741</v>
+        <v>43650.442528657411</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>222</v>
@@ -5803,9 +6084,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>43650.45434314814</v>
+        <v>43650.454343148143</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>225</v>
@@ -5841,9 +6122,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>43650.46022086806</v>
+        <v>43650.460220868059</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>232</v>
@@ -5876,9 +6157,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>43650.46375940972</v>
+        <v>43650.463759409722</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>237</v>
@@ -5911,9 +6192,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>43650.46614662037</v>
+        <v>43650.466146620369</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>243</v>
@@ -5940,9 +6221,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>43650.4696912963</v>
+        <v>43650.469691296297</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>247</v>
@@ -5972,7 +6253,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>43654.390977083334</v>
       </c>
@@ -6007,9 +6288,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>43654.3948909375</v>
+        <v>43654.394890937503</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>258</v>
@@ -6039,7 +6320,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43654.416436203705</v>
       </c>
@@ -6074,7 +6355,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43654.428911006944</v>
       </c>
@@ -6109,7 +6390,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43654.43477122685</v>
       </c>
@@ -6144,9 +6425,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>43654.4527621875</v>
+        <v>43654.452762187502</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>280</v>
@@ -6179,7 +6460,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>43654.637129282404</v>
       </c>
@@ -6217,9 +6498,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>43654.66438462963</v>
+        <v>43654.664384629628</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>292</v>
@@ -6255,9 +6536,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>43654.67325508102</v>
+        <v>43654.673255081019</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>300</v>
@@ -6290,7 +6571,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>43654.697235451385</v>
       </c>
@@ -6328,9 +6609,9 @@
         <v>314</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>43654.7047150463</v>
+        <v>43654.704715046297</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>315</v>
@@ -6363,9 +6644,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>43654.71754900463</v>
+        <v>43654.717549004628</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>322</v>
@@ -6398,7 +6679,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>43654.71839490741</v>
       </c>
@@ -6433,9 +6714,9 @@
         <v>333</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>43654.72321861111</v>
+        <v>43654.723218611107</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>334</v>
@@ -6465,9 +6746,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>43655.71937704861</v>
+        <v>43655.719377048612</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>339</v>
@@ -6503,7 +6784,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>43656.353772002316</v>
       </c>
@@ -6544,9 +6825,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>43658.61325196759</v>
+        <v>43658.613251967588</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>355</v>
@@ -6585,9 +6866,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>43658.62004016204</v>
+        <v>43658.620040162037</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>364</v>
@@ -6623,7 +6904,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>43660.783919016205</v>
       </c>
@@ -6661,9 +6942,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>43660.79053383102</v>
+        <v>43660.790533831023</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>378</v>
@@ -6702,9 +6983,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>43662.3977618287</v>
+        <v>43662.397761828703</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>385</v>
@@ -6740,9 +7021,9 @@
         <v>391</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>43662.415345</v>
+        <v>43662.415345000001</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>392</v>
@@ -6769,9 +7050,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>43662.4296340162</v>
+        <v>43662.429634016204</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>396</v>
@@ -6807,9 +7088,9 @@
         <v>401</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>43662.43311186343</v>
+        <v>43662.433111863429</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>402</v>
@@ -6848,9 +7129,9 @@
         <v>409</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>43662.45799546296</v>
+        <v>43662.457995462959</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>410</v>
@@ -6883,9 +7164,9 @@
         <v>414</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>43662.49282847223</v>
+        <v>43662.492828472226</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>415</v>
@@ -6918,9 +7199,9 @@
         <v>420</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>43662.49774872685</v>
+        <v>43662.497748726848</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>421</v>
@@ -6953,9 +7234,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>43662.53290518519</v>
+        <v>43662.532905185188</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>428</v>
@@ -6991,7 +7272,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>43662.623555983795</v>
       </c>
@@ -7029,7 +7310,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>43663.456421423616</v>
       </c>
@@ -7070,9 +7351,9 @@
         <v>449</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>43663.58908016204</v>
+        <v>43663.589080162041</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>450</v>
@@ -7102,9 +7383,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>43663.59598174768</v>
+        <v>43663.595981747683</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>454</v>
@@ -7140,7 +7421,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>43663.60005606481</v>
       </c>
@@ -7175,9 +7456,9 @@
         <v>466</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>43663.60474563658</v>
+        <v>43663.604745636578</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>467</v>
@@ -7213,9 +7494,9 @@
         <v>472</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>43664.16608922454</v>
+        <v>43664.166089224542</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>473</v>
@@ -7251,9 +7532,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>43664.17825252315</v>
+        <v>43664.178252523147</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>480</v>
@@ -7283,9 +7564,9 @@
         <v>484</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>43664.1839866088</v>
+        <v>43664.183986608798</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>485</v>
@@ -7315,9 +7596,9 @@
         <v>489</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>43664.19699386574</v>
+        <v>43664.196993865742</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>490</v>
@@ -7347,7 +7628,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>43664.210355937495</v>
       </c>
@@ -7376,9 +7657,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>43664.2194334375</v>
+        <v>43664.219433437502</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>501</v>
@@ -7411,7 +7692,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>43664.224642615736</v>
       </c>
@@ -7437,9 +7718,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>43664.23333653936</v>
+        <v>43664.233336539357</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>510</v>
@@ -7472,9 +7753,9 @@
         <v>516</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>43664.24139483796</v>
+        <v>43664.241394837962</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>517</v>
@@ -7504,7 +7785,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>43664.24873175926</v>
       </c>
@@ -7536,9 +7817,9 @@
         <v>527</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>43664.28911118055</v>
+        <v>43664.289111180551</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>528</v>
@@ -7568,9 +7849,9 @@
         <v>532</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>43664.30614678241</v>
+        <v>43664.306146782408</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>533</v>
@@ -7597,9 +7878,9 @@
         <v>536</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>43664.32579891203</v>
+        <v>43664.325798912032</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>537</v>
@@ -7629,9 +7910,9 @@
         <v>542</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>43664.33207671296</v>
+        <v>43664.332076712963</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>543</v>
@@ -7658,7 +7939,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>43664.340979456014</v>
       </c>
@@ -7690,7 +7971,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>43664.39944601852</v>
       </c>
@@ -7725,7 +8006,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>43664.422412789354</v>
       </c>
@@ -7751,9 +8032,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>43664.42348524305</v>
+        <v>43664.423485243053</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>562</v>
@@ -7780,7 +8061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>43664.425041712966</v>
       </c>
@@ -7809,9 +8090,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>43664.43207916667</v>
+        <v>43664.432079166669</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>567</v>
@@ -7844,9 +8125,9 @@
         <v>571</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>43664.43697016204</v>
+        <v>43664.436970162038</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>572</v>
@@ -7876,9 +8157,9 @@
         <v>575</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>43664.44665576389</v>
+        <v>43664.446655763888</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>576</v>
@@ -7905,7 +8186,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>43664.487190451386</v>
       </c>
@@ -7940,9 +8221,9 @@
         <v>585</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>43664.49852636574</v>
+        <v>43664.498526365744</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>586</v>
@@ -7975,7 +8256,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>43664.508161516205</v>
       </c>
@@ -8007,7 +8288,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>43665.127184490746</v>
       </c>
@@ -8048,9 +8329,9 @@
         <v>604</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>43665.20889008102</v>
+        <v>43665.208890081019</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>605</v>
@@ -8086,9 +8367,9 @@
         <v>611</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>43665.21844951389</v>
+        <v>43665.218449513894</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>612</v>
@@ -8121,9 +8402,9 @@
         <v>616</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>43665.45664076389</v>
+        <v>43665.456640763892</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>617</v>
@@ -8162,9 +8443,9 @@
         <v>624</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>43665.461788125</v>
+        <v>43665.461788125001</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>625</v>
@@ -8203,7 +8484,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>43665.463741631946</v>
       </c>
@@ -8241,7 +8522,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>43665.46561777778</v>
       </c>
@@ -8276,7 +8557,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>43665.46747909722</v>
       </c>
@@ -8311,9 +8592,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>43665.46915914352</v>
+        <v>43665.469159143518</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>652</v>
@@ -8346,9 +8627,9 @@
         <v>657</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>43665.47146877315</v>
+        <v>43665.471468773147</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>658</v>
@@ -8384,9 +8665,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>43665.47327585648</v>
+        <v>43665.473275856479</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>664</v>
@@ -8419,9 +8700,9 @@
         <v>670</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>43665.47550518518</v>
+        <v>43665.475505185183</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>671</v>
@@ -8457,9 +8738,9 @@
         <v>676</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>43665.47674099537</v>
+        <v>43665.476740995371</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>677</v>
@@ -8489,7 +8770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>43665.480043020834</v>
       </c>
@@ -8524,9 +8805,9 @@
         <v>622</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>43665.48226179398</v>
+        <v>43665.482261793979</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>680</v>
@@ -8559,9 +8840,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
-        <v>43665.48346284722</v>
+        <v>43665.483462847224</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
@@ -8592,9 +8873,9 @@
         <v>686</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
-        <v>43665.48462335648</v>
+        <v>43665.484623356482</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>687</v>
@@ -8627,9 +8908,9 @@
         <v>686</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>43665.48586255787</v>
+        <v>43665.485862557871</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>690</v>
@@ -8668,7 +8949,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>43668.255455266204</v>
       </c>
@@ -8700,7 +8981,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>43668.277185150466</v>
       </c>
@@ -8729,7 +9010,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>43668.290865057876</v>
       </c>
@@ -8764,9 +9045,9 @@
         <v>713</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>43668.30613159722</v>
+        <v>43668.306131597223</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>714</v>
@@ -8799,9 +9080,9 @@
         <v>718</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>43668.30807865741</v>
+        <v>43668.308078657406</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>719</v>
@@ -8831,9 +9112,9 @@
         <v>717</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>43668.3404516088</v>
+        <v>43668.340451608798</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>722</v>
@@ -8866,9 +9147,9 @@
         <v>726</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>43668.34324265046</v>
+        <v>43668.343242650459</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>727</v>
@@ -8892,7 +9173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>43668.35817605324</v>
       </c>
@@ -8924,9 +9205,9 @@
         <v>735</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>43668.3596684838</v>
+        <v>43668.359668483798</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>736</v>
@@ -8956,7 +9237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>43668.362612488425</v>
       </c>
@@ -8994,9 +9275,9 @@
         <v>746</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>43668.76409952546</v>
+        <v>43668.764099525462</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>747</v>
@@ -9035,7 +9316,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>43669.379199421295</v>
       </c>
@@ -9064,9 +9345,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>43669.3809981713</v>
+        <v>43669.380998171298</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>760</v>
@@ -9102,7 +9383,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>43669.382330671295</v>
       </c>
@@ -9131,9 +9412,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>43669.38375987268</v>
+        <v>43669.383759872682</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>773</v>
@@ -9166,7 +9447,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>43670.035114687504</v>
       </c>
@@ -9204,9 +9485,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>43670.0497062037</v>
+        <v>43670.049706203703</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>787</v>
@@ -9233,9 +9514,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>43670.07923454861</v>
+        <v>43670.079234548612</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>792</v>
@@ -9259,9 +9540,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>43670.08119949074</v>
+        <v>43670.081199490742</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>795</v>
@@ -9285,9 +9566,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>43670.08267591435</v>
+        <v>43670.082675914353</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>798</v>
@@ -9311,7 +9592,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>43670.08396314815</v>
       </c>
@@ -9337,7 +9618,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>43670.117843368054</v>
       </c>
@@ -9372,9 +9653,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>43670.12490076388</v>
+        <v>43670.124900763883</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>808</v>
@@ -9401,9 +9682,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>43670.13862861111</v>
+        <v>43670.138628611108</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>812</v>
@@ -9436,9 +9717,9 @@
         <v>818</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>43670.14991224537</v>
+        <v>43670.149912245368</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>819</v>
@@ -9468,7 +9749,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>43670.180969768524</v>
       </c>
@@ -9503,7 +9784,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>43670.185321006946</v>
       </c>
@@ -9538,9 +9819,9 @@
         <v>837</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>43670.19520872685</v>
+        <v>43670.195208726851</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>838</v>
@@ -9573,9 +9854,9 @@
         <v>842</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>43670.21176484953</v>
+        <v>43670.211764849533</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>843</v>
@@ -9602,9 +9883,9 @@
         <v>846</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>43670.2856547338</v>
+        <v>43670.285654733801</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>847</v>
@@ -9640,7 +9921,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>43670.36121043982</v>
       </c>
@@ -9681,7 +9962,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>43670.3787462037</v>
       </c>
@@ -9722,7 +10003,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>43670.392770185186</v>
       </c>
@@ -9754,9 +10035,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>43670.39603583333</v>
+        <v>43670.396035833328</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>876</v>
@@ -9795,9 +10076,9 @@
         <v>879</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>43670.39623761574</v>
+        <v>43670.396237615743</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>880</v>
@@ -9836,7 +10117,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>43670.408070115736</v>
       </c>
@@ -9871,7 +10152,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>43670.42738768518</v>
       </c>
@@ -9906,7 +10187,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>43670.421480578705</v>
       </c>
@@ -9941,7 +10222,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>43670.421617280095</v>
       </c>
@@ -9979,9 +10260,9 @@
         <v>905</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
-        <v>43670.56885252315</v>
+        <v>43670.568852523153</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>906</v>
@@ -10020,9 +10301,9 @@
         <v>913</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
-        <v>43670.5795071412</v>
+        <v>43670.579507141199</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>914</v>
@@ -10058,9 +10339,9 @@
         <v>920</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
-        <v>43670.58642373842</v>
+        <v>43670.586423738423</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>921</v>
@@ -10099,7 +10380,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>43670.598273553245</v>
       </c>
@@ -10137,9 +10418,9 @@
         <v>935</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
-        <v>43670.6002905787</v>
+        <v>43670.600290578703</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>936</v>
@@ -10175,9 +10456,9 @@
         <v>942</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
-        <v>43670.64099072917</v>
+        <v>43670.640990729167</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>943</v>
@@ -10213,9 +10494,9 @@
         <v>949</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
-        <v>43672.01375760417</v>
+        <v>43672.013757604167</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>950</v>
@@ -10245,7 +10526,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>43672.023551562495</v>
       </c>
@@ -10271,9 +10552,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
-        <v>43672.04862487268</v>
+        <v>43672.048624872681</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>959</v>
@@ -10306,9 +10587,9 @@
         <v>964</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
-        <v>43672.07110901621</v>
+        <v>43672.071109016208</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>965</v>
@@ -10338,7 +10619,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>43672.082484398146</v>
       </c>
@@ -10367,9 +10648,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
-        <v>43672.10642182871</v>
+        <v>43672.106421828707</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>974</v>
@@ -10396,9 +10677,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
-        <v>43675.33778472222</v>
+        <v>43675.337784722222</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>979</v>
@@ -10425,9 +10706,9 @@
         <v>982</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
-        <v>43675.34402559028</v>
+        <v>43675.344025590282</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>983</v>
@@ -10454,9 +10735,9 @@
         <v>986</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
-        <v>43675.34948635417</v>
+        <v>43675.349486354171</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>987</v>
@@ -10489,9 +10770,9 @@
         <v>991</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
-        <v>43675.41106230324</v>
+        <v>43675.411062303239</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>992</v>
@@ -10521,9 +10802,9 @@
         <v>995</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
-        <v>43675.39534420139</v>
+        <v>43675.395344201388</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>996</v>
@@ -10550,9 +10831,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
-        <v>43675.39954585648</v>
+        <v>43675.399545856482</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>1000</v>
@@ -10582,9 +10863,9 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
-        <v>43675.40718378472</v>
+        <v>43675.407183784722</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>1004</v>
@@ -10614,9 +10895,9 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
-        <v>43675.41997575232</v>
+        <v>43675.419975752317</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>1008</v>
@@ -10643,9 +10924,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
-        <v>43675.42585678241</v>
+        <v>43675.425856782407</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>1011</v>
@@ -10675,9 +10956,9 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
-        <v>43675.42945324074</v>
+        <v>43675.429453240737</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>1017</v>
@@ -10710,7 +10991,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>43675.43451392361</v>
       </c>
@@ -10748,7 +11029,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>43675.439311967595</v>
       </c>
@@ -10777,9 +11058,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
-        <v>43675.44421980324</v>
+        <v>43675.444219803241</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>1034</v>
@@ -10815,9 +11096,9 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
-        <v>43675.45034596065</v>
+        <v>43675.450345960649</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>1041</v>
@@ -10850,7 +11131,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>43675.45315512731</v>
       </c>
@@ -10879,9 +11160,9 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
-        <v>43676.62391730324</v>
+        <v>43676.623917303237</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>1051</v>
@@ -10917,9 +11198,9 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
-        <v>43676.63758380787</v>
+        <v>43676.637583807867</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>1058</v>
@@ -10955,9 +11236,9 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
-        <v>43676.64853892361</v>
+        <v>43676.648538923611</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>1063</v>
@@ -10990,7 +11271,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>43676.64936387731</v>
       </c>
@@ -11025,7 +11306,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>43676.651786111106</v>
       </c>
@@ -11060,7 +11341,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>43676.654302106486</v>
       </c>
@@ -11095,7 +11376,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>43676.658616030094</v>
       </c>
@@ -11130,7 +11411,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>43676.661876666665</v>
       </c>
@@ -11165,9 +11446,9 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
-        <v>43676.66543234954</v>
+        <v>43676.665432349539</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>1093</v>
@@ -11197,9 +11478,9 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
-        <v>43676.66787841435</v>
+        <v>43676.667878414351</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>1097</v>
@@ -11232,9 +11513,9 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
-        <v>43676.67142128472</v>
+        <v>43676.671421284722</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>1099</v>
@@ -11267,9 +11548,9 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
-        <v>43676.67378427083</v>
+        <v>43676.673784270832</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>1103</v>
@@ -11299,9 +11580,9 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
-        <v>43676.67441982639</v>
+        <v>43676.674419826391</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>1107</v>
@@ -11334,7 +11615,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>43676.675968344905</v>
       </c>
@@ -11369,7 +11650,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>43676.67928355324</v>
       </c>
@@ -11404,9 +11685,9 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
-        <v>43676.68030204861</v>
+        <v>43676.680302048611</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>1114</v>
@@ -11436,9 +11717,9 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
-        <v>43676.68298550926</v>
+        <v>43676.682985509258</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>1119</v>
@@ -11471,9 +11752,9 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
-        <v>43676.68417270834</v>
+        <v>43676.684172708337</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>1122</v>
@@ -11506,9 +11787,9 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
-        <v>43676.68660594907</v>
+        <v>43676.686605949071</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>1125</v>
@@ -11538,7 +11819,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>43676.687413865744</v>
       </c>
@@ -11573,7 +11854,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>43676.689646122686</v>
       </c>
@@ -11608,7 +11889,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>43676.690843715274</v>
       </c>
@@ -11643,7 +11924,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>43676.69388363426</v>
       </c>
@@ -11675,9 +11956,9 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
-        <v>43677.25206825232</v>
+        <v>43677.252068252317</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>1145</v>
@@ -11704,9 +11985,9 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
-        <v>43677.25725011574</v>
+        <v>43677.257250115741</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>1148</v>
@@ -11742,7 +12023,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>43677.261019930556</v>
       </c>
@@ -11777,7 +12058,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>43677.349738923614</v>
       </c>
@@ -11806,9 +12087,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
-        <v>43677.35211923611</v>
+        <v>43677.352119236108</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>1167</v>
@@ -11841,9 +12122,9 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
-        <v>43677.35380114583</v>
+        <v>43677.353801145829</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>1173</v>
@@ -11870,9 +12151,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
-        <v>43677.35508824074</v>
+        <v>43677.355088240743</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>1178</v>
@@ -11899,9 +12180,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
-        <v>43677.35684018518</v>
+        <v>43677.356840185181</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>1182</v>
@@ -11925,7 +12206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>43677.35835278935</v>
       </c>
@@ -11951,9 +12232,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
-        <v>43677.35936710648</v>
+        <v>43677.359367106481</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>1188</v>
@@ -11977,9 +12258,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
-        <v>43677.36244496528</v>
+        <v>43677.362444965278</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>1190</v>
@@ -12003,9 +12284,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
-        <v>43677.36546422454</v>
+        <v>43677.365464224538</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>1193</v>
@@ -12035,9 +12316,9 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
-        <v>43677.36686353009</v>
+        <v>43677.366863530093</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>1198</v>
@@ -12064,7 +12345,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>43677.36766856481</v>
       </c>
@@ -12093,9 +12374,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
-        <v>43677.36931491898</v>
+        <v>43677.369314918978</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>1206</v>
@@ -12119,9 +12400,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
-        <v>43677.43486019676</v>
+        <v>43677.434860196758</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>1210</v>
@@ -12151,7 +12432,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>43677.438126759254</v>
       </c>
@@ -12177,7 +12458,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>43677.441021817125</v>
       </c>
@@ -12215,9 +12496,9 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
-        <v>43677.48313633102</v>
+        <v>43677.483136331022</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>1223</v>
@@ -12244,9 +12525,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
-        <v>43677.48667971065</v>
+        <v>43677.486679710652</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>1228</v>
@@ -12273,9 +12554,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
-        <v>43677.49000118056</v>
+        <v>43677.490001180558</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>1231</v>
@@ -12311,7 +12592,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>43677.501449675925</v>
       </c>
@@ -12349,9 +12630,9 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
-        <v>43677.83360721065</v>
+        <v>43677.833607210647</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>1245</v>
@@ -12375,7 +12656,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>43677.8390965625</v>
       </c>
@@ -12401,9 +12682,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
-        <v>43677.84324796296</v>
+        <v>43677.843247962963</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>1249</v>
@@ -12427,9 +12708,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
-        <v>43677.84721423611</v>
+        <v>43677.847214236113</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>1252</v>
@@ -12456,7 +12737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>43677.87815074074</v>
       </c>
@@ -12485,7 +12766,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>43677.90597537037</v>
       </c>
@@ -12514,9 +12795,9 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
-        <v>43678.08272490741</v>
+        <v>43678.082724907406</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>1260</v>
@@ -12543,9 +12824,9 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
-        <v>43678.08923966435</v>
+        <v>43678.089239664347</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>1263</v>
@@ -12572,9 +12853,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
-        <v>43678.09023028935</v>
+        <v>43678.090230289352</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>1266</v>
@@ -12598,7 +12879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>43678.093099907404</v>
       </c>
@@ -12624,9 +12905,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
-        <v>43678.09510755787</v>
+        <v>43678.095107557871</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>1270</v>
@@ -12653,9 +12934,9 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
-        <v>43678.09861814815</v>
+        <v>43678.098618148149</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>1274</v>
@@ -12679,7 +12960,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>43678.101866805555</v>
       </c>
@@ -12705,9 +12986,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
-        <v>43678.10335943287</v>
+        <v>43678.103359432869</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>1278</v>
@@ -12731,9 +13012,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
-        <v>43678.1067196875</v>
+        <v>43678.106719687501</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>1280</v>
@@ -12757,9 +13038,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
-        <v>43678.39261892361</v>
+        <v>43678.392618923608</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>1283</v>
@@ -12795,7 +13076,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>43678.406732442134</v>
       </c>
@@ -12833,7 +13114,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>43678.517775671295</v>
       </c>
@@ -12874,9 +13155,9 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
-        <v>43678.53579337963</v>
+        <v>43678.535793379633</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>1307</v>
@@ -12903,9 +13184,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
-        <v>43678.53903612269</v>
+        <v>43678.539036122689</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>1312</v>
@@ -12932,7 +13213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>43678.543686122684</v>
       </c>
@@ -12958,9 +13239,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
-        <v>43678.58370225695</v>
+        <v>43678.583702256947</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>1319</v>
@@ -12993,9 +13274,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
-        <v>43679.38504009259</v>
+        <v>43679.385040092588</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>1325</v>
@@ -13034,7 +13315,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>43679.40956753472</v>
       </c>
@@ -13066,9 +13347,9 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
-        <v>43679.42458722222</v>
+        <v>43679.424587222224</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>1340</v>
@@ -13104,7 +13385,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>43679.439560949075</v>
       </c>
@@ -13145,7 +13426,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>43679.50833809028</v>
       </c>
@@ -13171,9 +13452,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
-        <v>43679.51000434028</v>
+        <v>43679.510004340278</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>1356</v>
@@ -13197,9 +13478,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
-        <v>43679.51523934028</v>
+        <v>43679.515239340282</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>1358</v>
@@ -13223,9 +13504,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
-        <v>43679.51848501158</v>
+        <v>43679.518485011577</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>1361</v>
@@ -13249,9 +13530,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
-        <v>43679.52213596065</v>
+        <v>43679.522135960651</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>1364</v>
@@ -13275,7 +13556,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>43679.523752928246</v>
       </c>
@@ -13301,9 +13582,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
-        <v>43680.66526401621</v>
+        <v>43680.665264016206</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>1370</v>
@@ -13339,7 +13620,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>43682.329401944444</v>
       </c>
@@ -13380,7 +13661,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>43682.335942060185</v>
       </c>
@@ -13418,7 +13699,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>43682.340145532406</v>
       </c>
@@ -13453,7 +13734,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>43682.365780775464</v>
       </c>
@@ -13488,9 +13769,9 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
-        <v>43682.37001287037</v>
+        <v>43682.370012870371</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>1404</v>
@@ -13526,9 +13807,9 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
-        <v>43682.43549172454</v>
+        <v>43682.435491724536</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>1412</v>
@@ -13567,9 +13848,9 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
-        <v>43682.44085028935</v>
+        <v>43682.440850289349</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>1420</v>
@@ -13605,9 +13886,9 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
-        <v>43682.45042017361</v>
+        <v>43682.450420173613</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>1426</v>
@@ -13640,9 +13921,9 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
-        <v>43682.46251849537</v>
+        <v>43682.462518495369</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>1431</v>
@@ -13678,9 +13959,9 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
-        <v>43682.47100502315</v>
+        <v>43682.471005023152</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>1439</v>
@@ -13710,9 +13991,9 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
-        <v>43682.48215202546</v>
+        <v>43682.482152025463</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>1444</v>
@@ -13748,7 +14029,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <v>43682.488573888884</v>
       </c>
@@ -13783,492 +14064,497 @@
         <v>1455</v>
       </c>
     </row>
+    <row r="276" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>1456</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D1"/>
-    <hyperlink r:id="rId2" ref="I1"/>
-    <hyperlink r:id="rId3" ref="D2"/>
-    <hyperlink r:id="rId4" ref="D3"/>
-    <hyperlink r:id="rId5" ref="D4"/>
-    <hyperlink r:id="rId6" ref="D5"/>
-    <hyperlink r:id="rId7" ref="D6"/>
-    <hyperlink r:id="rId8" ref="D7"/>
-    <hyperlink r:id="rId9" ref="I7"/>
-    <hyperlink r:id="rId10" ref="D8"/>
-    <hyperlink r:id="rId11" ref="I8"/>
-    <hyperlink r:id="rId12" ref="D9"/>
-    <hyperlink r:id="rId13" ref="I9"/>
-    <hyperlink r:id="rId14" ref="L9"/>
-    <hyperlink r:id="rId15" ref="D10"/>
-    <hyperlink r:id="rId16" ref="D11"/>
-    <hyperlink r:id="rId17" ref="D12"/>
-    <hyperlink r:id="rId18" ref="I12"/>
-    <hyperlink r:id="rId19" ref="L12"/>
-    <hyperlink r:id="rId20" ref="D13"/>
-    <hyperlink r:id="rId21" ref="I13"/>
-    <hyperlink r:id="rId22" ref="N13"/>
-    <hyperlink r:id="rId23" ref="D14"/>
-    <hyperlink r:id="rId24" ref="I14"/>
-    <hyperlink r:id="rId25" ref="N14"/>
-    <hyperlink r:id="rId26" ref="D15"/>
-    <hyperlink r:id="rId27" ref="D16"/>
-    <hyperlink r:id="rId28" ref="I16"/>
-    <hyperlink r:id="rId29" ref="L16"/>
-    <hyperlink r:id="rId30" ref="D17"/>
-    <hyperlink r:id="rId31" location="faq-5" ref="I17"/>
-    <hyperlink r:id="rId32" ref="L17"/>
-    <hyperlink r:id="rId33" ref="M17"/>
-    <hyperlink r:id="rId34" ref="D18"/>
-    <hyperlink r:id="rId35" ref="I18"/>
-    <hyperlink r:id="rId36" ref="D19"/>
-    <hyperlink r:id="rId37" ref="D20"/>
-    <hyperlink r:id="rId38" ref="I20"/>
-    <hyperlink r:id="rId39" ref="D21"/>
-    <hyperlink r:id="rId40" ref="I21"/>
-    <hyperlink r:id="rId41" ref="D22"/>
-    <hyperlink r:id="rId42" ref="I22"/>
-    <hyperlink r:id="rId43" ref="D23"/>
-    <hyperlink r:id="rId44" ref="I23"/>
-    <hyperlink r:id="rId45" ref="D24"/>
-    <hyperlink r:id="rId46" ref="I24"/>
-    <hyperlink r:id="rId47" ref="D25"/>
-    <hyperlink r:id="rId48" ref="D26"/>
-    <hyperlink r:id="rId49" ref="D27"/>
-    <hyperlink r:id="rId50" ref="D28"/>
-    <hyperlink r:id="rId51" ref="D29"/>
-    <hyperlink r:id="rId52" ref="I29"/>
-    <hyperlink r:id="rId53" ref="D30"/>
-    <hyperlink r:id="rId54" ref="I30"/>
-    <hyperlink r:id="rId55" ref="D31"/>
-    <hyperlink r:id="rId56" ref="I31"/>
-    <hyperlink r:id="rId57" ref="D32"/>
-    <hyperlink r:id="rId58" location="!/access_rights=open" ref="I32"/>
-    <hyperlink r:id="rId59" ref="D33"/>
-    <hyperlink r:id="rId60" ref="I33"/>
-    <hyperlink r:id="rId61" ref="D34"/>
-    <hyperlink r:id="rId62" ref="I34"/>
-    <hyperlink r:id="rId63" ref="D35"/>
-    <hyperlink r:id="rId64" ref="I35"/>
-    <hyperlink r:id="rId65" ref="L35"/>
-    <hyperlink r:id="rId66" ref="D36"/>
-    <hyperlink r:id="rId67" ref="I36"/>
-    <hyperlink r:id="rId68" ref="L36"/>
-    <hyperlink r:id="rId69" ref="D37"/>
-    <hyperlink r:id="rId70" ref="I37"/>
-    <hyperlink r:id="rId71" ref="L37"/>
-    <hyperlink r:id="rId72" ref="D38"/>
-    <hyperlink r:id="rId73" ref="I38"/>
-    <hyperlink r:id="rId74" ref="D39"/>
-    <hyperlink r:id="rId75" ref="I39"/>
-    <hyperlink r:id="rId76" ref="D40"/>
-    <hyperlink r:id="rId77" ref="I40"/>
-    <hyperlink r:id="rId78" ref="L40"/>
-    <hyperlink r:id="rId79" ref="M40"/>
-    <hyperlink r:id="rId80" ref="D41"/>
-    <hyperlink r:id="rId81" ref="D42"/>
-    <hyperlink r:id="rId82" ref="I42"/>
-    <hyperlink r:id="rId83" ref="D43"/>
-    <hyperlink r:id="rId84" ref="I43"/>
-    <hyperlink r:id="rId85" ref="D44"/>
-    <hyperlink r:id="rId86" ref="I44"/>
-    <hyperlink r:id="rId87" ref="D45"/>
-    <hyperlink r:id="rId88" ref="D46"/>
-    <hyperlink r:id="rId89" ref="I46"/>
-    <hyperlink r:id="rId90" ref="D47"/>
-    <hyperlink r:id="rId91" ref="D48"/>
-    <hyperlink r:id="rId92" ref="I48"/>
-    <hyperlink r:id="rId93" ref="D49"/>
-    <hyperlink r:id="rId94" ref="L49"/>
-    <hyperlink r:id="rId95" ref="D50"/>
-    <hyperlink r:id="rId96" ref="I50"/>
-    <hyperlink r:id="rId97" ref="D51"/>
-    <hyperlink r:id="rId98" ref="D52"/>
-    <hyperlink r:id="rId99" ref="I52"/>
-    <hyperlink r:id="rId100" ref="D53"/>
-    <hyperlink r:id="rId101" ref="I53"/>
-    <hyperlink r:id="rId102" ref="D54"/>
-    <hyperlink r:id="rId103" ref="D55"/>
-    <hyperlink r:id="rId104" ref="D56"/>
-    <hyperlink r:id="rId105" ref="D57"/>
-    <hyperlink r:id="rId106" ref="I57"/>
-    <hyperlink r:id="rId107" ref="D58"/>
-    <hyperlink r:id="rId108" ref="L58"/>
-    <hyperlink r:id="rId109" ref="D59"/>
-    <hyperlink r:id="rId110" ref="I59"/>
-    <hyperlink r:id="rId111" ref="D60"/>
-    <hyperlink r:id="rId112" ref="I60"/>
-    <hyperlink r:id="rId113" ref="L60"/>
-    <hyperlink r:id="rId114" ref="D61"/>
-    <hyperlink r:id="rId115" ref="I61"/>
-    <hyperlink r:id="rId116" ref="D62"/>
-    <hyperlink r:id="rId117" ref="I62"/>
-    <hyperlink r:id="rId118" ref="D63"/>
-    <hyperlink r:id="rId119" ref="I63"/>
-    <hyperlink r:id="rId120" ref="L63"/>
-    <hyperlink r:id="rId121" ref="D64"/>
-    <hyperlink r:id="rId122" ref="D65"/>
-    <hyperlink r:id="rId123" ref="D66"/>
-    <hyperlink r:id="rId124" ref="I66"/>
-    <hyperlink r:id="rId125" ref="D67"/>
-    <hyperlink r:id="rId126" ref="D68"/>
-    <hyperlink r:id="rId127" ref="I68"/>
-    <hyperlink r:id="rId128" ref="L68"/>
-    <hyperlink r:id="rId129" ref="D69"/>
-    <hyperlink r:id="rId130" ref="I69"/>
-    <hyperlink r:id="rId131" ref="D70"/>
-    <hyperlink r:id="rId132" ref="I70"/>
-    <hyperlink r:id="rId133" ref="L70"/>
-    <hyperlink r:id="rId134" ref="D71"/>
-    <hyperlink r:id="rId135" ref="I71"/>
-    <hyperlink r:id="rId136" ref="D72"/>
-    <hyperlink r:id="rId137" ref="I72"/>
-    <hyperlink r:id="rId138" ref="D73"/>
-    <hyperlink r:id="rId139" ref="D74"/>
-    <hyperlink r:id="rId140" ref="I74"/>
-    <hyperlink r:id="rId141" ref="L74"/>
-    <hyperlink r:id="rId142" ref="D75"/>
-    <hyperlink r:id="rId143" ref="D76"/>
-    <hyperlink r:id="rId144" ref="L76"/>
-    <hyperlink r:id="rId145" ref="M76"/>
-    <hyperlink r:id="rId146" ref="D77"/>
-    <hyperlink r:id="rId147" ref="I77"/>
-    <hyperlink r:id="rId148" ref="D78"/>
-    <hyperlink r:id="rId149" ref="D79"/>
-    <hyperlink r:id="rId150" ref="D80"/>
-    <hyperlink r:id="rId151" ref="D81"/>
-    <hyperlink r:id="rId152" ref="D82"/>
-    <hyperlink r:id="rId153" ref="D83"/>
-    <hyperlink r:id="rId154" ref="D84"/>
-    <hyperlink r:id="rId155" ref="D85"/>
-    <hyperlink r:id="rId156" ref="D86"/>
-    <hyperlink r:id="rId157" ref="D87"/>
-    <hyperlink r:id="rId158" ref="D88"/>
-    <hyperlink r:id="rId159" ref="D89"/>
-    <hyperlink r:id="rId160" ref="D90"/>
-    <hyperlink r:id="rId161" ref="D91"/>
-    <hyperlink r:id="rId162" ref="D92"/>
-    <hyperlink r:id="rId163" ref="D93"/>
-    <hyperlink r:id="rId164" ref="D94"/>
-    <hyperlink r:id="rId165" location="overviewlinkSection" ref="D95"/>
-    <hyperlink r:id="rId166" ref="D96"/>
-    <hyperlink r:id="rId167" location="benefitsSection" ref="I96"/>
-    <hyperlink r:id="rId168" ref="L96"/>
-    <hyperlink r:id="rId169" ref="D97"/>
-    <hyperlink r:id="rId170" ref="L97"/>
-    <hyperlink r:id="rId171" ref="D98"/>
-    <hyperlink r:id="rId172" ref="I98"/>
-    <hyperlink r:id="rId173" ref="D99"/>
-    <hyperlink r:id="rId174" ref="L99"/>
-    <hyperlink r:id="rId175" ref="D100"/>
-    <hyperlink r:id="rId176" ref="D101"/>
-    <hyperlink r:id="rId177" ref="I101"/>
-    <hyperlink r:id="rId178" ref="D102"/>
-    <hyperlink r:id="rId179" ref="I102"/>
-    <hyperlink r:id="rId180" ref="L102"/>
-    <hyperlink r:id="rId181" ref="D103"/>
-    <hyperlink r:id="rId182" ref="I103"/>
-    <hyperlink r:id="rId183" ref="L103"/>
-    <hyperlink r:id="rId184" ref="D104"/>
-    <hyperlink r:id="rId185" ref="I104"/>
-    <hyperlink r:id="rId186" ref="L104"/>
-    <hyperlink r:id="rId187" ref="D105"/>
-    <hyperlink r:id="rId188" ref="D106"/>
-    <hyperlink r:id="rId189" ref="I106"/>
-    <hyperlink r:id="rId190" ref="L106"/>
-    <hyperlink r:id="rId191" ref="M106"/>
-    <hyperlink r:id="rId192" ref="D107"/>
-    <hyperlink r:id="rId193" ref="I107"/>
-    <hyperlink r:id="rId194" ref="L107"/>
-    <hyperlink r:id="rId195" ref="D108"/>
-    <hyperlink r:id="rId196" ref="I108"/>
-    <hyperlink r:id="rId197" ref="D109"/>
-    <hyperlink r:id="rId198" ref="D110"/>
-    <hyperlink r:id="rId199" ref="D111"/>
-    <hyperlink r:id="rId200" ref="I111"/>
-    <hyperlink r:id="rId201" ref="D112"/>
-    <hyperlink r:id="rId202" ref="I112"/>
-    <hyperlink r:id="rId203" ref="D113"/>
-    <hyperlink r:id="rId204" ref="I113"/>
-    <hyperlink r:id="rId205" ref="D114"/>
-    <hyperlink r:id="rId206" ref="I114"/>
-    <hyperlink r:id="rId207" ref="D115"/>
-    <hyperlink r:id="rId208" ref="I115"/>
-    <hyperlink r:id="rId209" ref="D116"/>
-    <hyperlink r:id="rId210" ref="I116"/>
-    <hyperlink r:id="rId211" ref="D117"/>
-    <hyperlink r:id="rId212" ref="I117"/>
-    <hyperlink r:id="rId213" ref="D118"/>
-    <hyperlink r:id="rId214" ref="I118"/>
-    <hyperlink r:id="rId215" ref="D119"/>
-    <hyperlink r:id="rId216" ref="I119"/>
-    <hyperlink r:id="rId217" ref="L119"/>
-    <hyperlink r:id="rId218" ref="M119"/>
-    <hyperlink r:id="rId219" ref="D120"/>
-    <hyperlink r:id="rId220" ref="I120"/>
-    <hyperlink r:id="rId221" ref="D121"/>
-    <hyperlink r:id="rId222" ref="D122"/>
-    <hyperlink r:id="rId223" ref="I122"/>
-    <hyperlink r:id="rId224" ref="D123"/>
-    <hyperlink r:id="rId225" ref="I123"/>
-    <hyperlink r:id="rId226" ref="L123"/>
-    <hyperlink r:id="rId227" ref="D124"/>
-    <hyperlink r:id="rId228" ref="I124"/>
-    <hyperlink r:id="rId229" ref="L124"/>
-    <hyperlink r:id="rId230" ref="D125"/>
-    <hyperlink r:id="rId231" ref="I125"/>
-    <hyperlink r:id="rId232" ref="L125"/>
-    <hyperlink r:id="rId233" ref="D126"/>
-    <hyperlink r:id="rId234" ref="D127"/>
-    <hyperlink r:id="rId235" ref="L127"/>
-    <hyperlink r:id="rId236" ref="D128"/>
-    <hyperlink r:id="rId237" ref="I128"/>
-    <hyperlink r:id="rId238" ref="D129"/>
-    <hyperlink r:id="rId239" ref="I129"/>
-    <hyperlink r:id="rId240" ref="L129"/>
-    <hyperlink r:id="rId241" ref="D130"/>
-    <hyperlink r:id="rId242" ref="I130"/>
-    <hyperlink r:id="rId243" ref="D131"/>
-    <hyperlink r:id="rId244" ref="D132"/>
-    <hyperlink r:id="rId245" ref="D133"/>
-    <hyperlink r:id="rId246" ref="D134"/>
-    <hyperlink r:id="rId247" ref="D135"/>
-    <hyperlink r:id="rId248" ref="I135"/>
-    <hyperlink r:id="rId249" ref="L135"/>
-    <hyperlink r:id="rId250" ref="M135"/>
-    <hyperlink r:id="rId251" ref="D136"/>
-    <hyperlink r:id="rId252" ref="D137"/>
-    <hyperlink r:id="rId253" ref="D138"/>
-    <hyperlink r:id="rId254" ref="D139"/>
-    <hyperlink r:id="rId255" ref="D140"/>
-    <hyperlink r:id="rId256" ref="D141"/>
-    <hyperlink r:id="rId257" ref="I141"/>
-    <hyperlink r:id="rId258" ref="L141"/>
-    <hyperlink r:id="rId259" ref="M141"/>
-    <hyperlink r:id="rId260" ref="D142"/>
-    <hyperlink r:id="rId261" ref="D143"/>
-    <hyperlink r:id="rId262" ref="I143"/>
-    <hyperlink r:id="rId263" ref="D144"/>
-    <hyperlink r:id="rId264" ref="L144"/>
-    <hyperlink r:id="rId265" ref="D145"/>
-    <hyperlink r:id="rId266" ref="I145"/>
-    <hyperlink r:id="rId267" ref="D146"/>
-    <hyperlink r:id="rId268" ref="I146"/>
-    <hyperlink r:id="rId269" ref="D147"/>
-    <hyperlink r:id="rId270" ref="N147"/>
-    <hyperlink r:id="rId271" ref="D148"/>
-    <hyperlink r:id="rId272" ref="D149"/>
-    <hyperlink r:id="rId273" ref="I149"/>
-    <hyperlink r:id="rId274" ref="D150"/>
-    <hyperlink r:id="rId275" ref="I150"/>
-    <hyperlink r:id="rId276" ref="D151"/>
-    <hyperlink r:id="rId277" ref="I151"/>
-    <hyperlink r:id="rId278" ref="L151"/>
-    <hyperlink r:id="rId279" ref="M151"/>
-    <hyperlink r:id="rId280" ref="D152"/>
-    <hyperlink r:id="rId281" ref="I152"/>
-    <hyperlink r:id="rId282" ref="D153"/>
-    <hyperlink r:id="rId283" ref="I153"/>
-    <hyperlink r:id="rId284" ref="L153"/>
-    <hyperlink r:id="rId285" ref="M153"/>
-    <hyperlink r:id="rId286" ref="D154"/>
-    <hyperlink r:id="rId287" ref="I154"/>
-    <hyperlink r:id="rId288" ref="L154"/>
-    <hyperlink r:id="rId289" ref="M154"/>
-    <hyperlink r:id="rId290" ref="D155"/>
-    <hyperlink r:id="rId291" ref="I155"/>
-    <hyperlink r:id="rId292" ref="D156"/>
-    <hyperlink r:id="rId293" ref="I156"/>
-    <hyperlink r:id="rId294" ref="D157"/>
-    <hyperlink r:id="rId295" ref="I157"/>
-    <hyperlink r:id="rId296" ref="D158"/>
-    <hyperlink r:id="rId297" ref="I158"/>
-    <hyperlink r:id="rId298" ref="L158"/>
-    <hyperlink r:id="rId299" ref="D159"/>
-    <hyperlink r:id="rId300" ref="I159"/>
-    <hyperlink r:id="rId301" ref="L159"/>
-    <hyperlink r:id="rId302" ref="M159"/>
-    <hyperlink r:id="rId303" ref="D160"/>
-    <hyperlink r:id="rId304" ref="I160"/>
-    <hyperlink r:id="rId305" ref="D161"/>
-    <hyperlink r:id="rId306" ref="D162"/>
-    <hyperlink r:id="rId307" ref="I162"/>
-    <hyperlink r:id="rId308" ref="D163"/>
-    <hyperlink r:id="rId309" ref="I163"/>
-    <hyperlink r:id="rId310" ref="L163"/>
-    <hyperlink r:id="rId311" ref="D164"/>
-    <hyperlink r:id="rId312" ref="I164"/>
-    <hyperlink r:id="rId313" ref="D165"/>
-    <hyperlink r:id="rId314" ref="D166"/>
-    <hyperlink r:id="rId315" ref="D167"/>
-    <hyperlink r:id="rId316" ref="I167"/>
-    <hyperlink r:id="rId317" ref="D168"/>
-    <hyperlink r:id="rId318" ref="I168"/>
-    <hyperlink r:id="rId319" ref="D169"/>
-    <hyperlink r:id="rId320" ref="I169"/>
-    <hyperlink r:id="rId321" ref="D170"/>
-    <hyperlink r:id="rId322" ref="D171"/>
-    <hyperlink r:id="rId323" ref="D172"/>
-    <hyperlink r:id="rId324" ref="D173"/>
-    <hyperlink r:id="rId325" ref="I173"/>
-    <hyperlink r:id="rId326" ref="D174"/>
-    <hyperlink r:id="rId327" ref="I174"/>
-    <hyperlink r:id="rId328" ref="D175"/>
-    <hyperlink r:id="rId329" ref="D176"/>
-    <hyperlink r:id="rId330" ref="I176"/>
-    <hyperlink r:id="rId331" ref="D177"/>
-    <hyperlink r:id="rId332" ref="D178"/>
-    <hyperlink r:id="rId333" ref="I178"/>
-    <hyperlink r:id="rId334" ref="D179"/>
-    <hyperlink r:id="rId335" ref="D180"/>
-    <hyperlink r:id="rId336" ref="I180"/>
-    <hyperlink r:id="rId337" ref="D181"/>
-    <hyperlink r:id="rId338" ref="I181"/>
-    <hyperlink r:id="rId339" ref="D182"/>
-    <hyperlink r:id="rId340" ref="D183"/>
-    <hyperlink r:id="rId341" ref="I183"/>
-    <hyperlink r:id="rId342" ref="L183"/>
-    <hyperlink r:id="rId343" ref="D184"/>
-    <hyperlink r:id="rId344" location="4" ref="I184"/>
-    <hyperlink r:id="rId345" ref="D185"/>
-    <hyperlink r:id="rId346" ref="D186"/>
-    <hyperlink r:id="rId347" ref="D187"/>
-    <hyperlink r:id="rId348" ref="D188"/>
-    <hyperlink r:id="rId349" ref="D189"/>
-    <hyperlink r:id="rId350" ref="I189"/>
-    <hyperlink r:id="rId351" ref="D190"/>
-    <hyperlink r:id="rId352" ref="I190"/>
-    <hyperlink r:id="rId353" ref="D191"/>
-    <hyperlink r:id="rId354" ref="D192"/>
-    <hyperlink r:id="rId355" ref="D193"/>
-    <hyperlink r:id="rId356" ref="D194"/>
-    <hyperlink r:id="rId357" ref="D195"/>
-    <hyperlink r:id="rId358" ref="I195"/>
-    <hyperlink r:id="rId359" ref="D196"/>
-    <hyperlink r:id="rId360" ref="I196"/>
-    <hyperlink r:id="rId361" ref="D197"/>
-    <hyperlink r:id="rId362" ref="D198"/>
-    <hyperlink r:id="rId363" ref="I198"/>
-    <hyperlink r:id="rId364" ref="D199"/>
-    <hyperlink r:id="rId365" ref="I199"/>
-    <hyperlink r:id="rId366" ref="D200"/>
-    <hyperlink r:id="rId367" ref="I200"/>
-    <hyperlink r:id="rId368" ref="D201"/>
-    <hyperlink r:id="rId369" ref="D202"/>
-    <hyperlink r:id="rId370" ref="I202"/>
-    <hyperlink r:id="rId371" ref="D203"/>
-    <hyperlink r:id="rId372" ref="I203"/>
-    <hyperlink r:id="rId373" ref="D204"/>
-    <hyperlink r:id="rId374" ref="D205"/>
-    <hyperlink r:id="rId375" ref="I205"/>
-    <hyperlink r:id="rId376" ref="D206"/>
-    <hyperlink r:id="rId377" ref="I206"/>
-    <hyperlink r:id="rId378" ref="D207"/>
-    <hyperlink r:id="rId379" ref="D208"/>
-    <hyperlink r:id="rId380" ref="D209"/>
-    <hyperlink r:id="rId381" ref="D210"/>
-    <hyperlink r:id="rId382" ref="I210"/>
-    <hyperlink r:id="rId383" ref="D211"/>
-    <hyperlink r:id="rId384" ref="I211"/>
-    <hyperlink r:id="rId385" ref="D212"/>
-    <hyperlink r:id="rId386" ref="D213"/>
-    <hyperlink r:id="rId387" ref="I213"/>
-    <hyperlink r:id="rId388" ref="L213"/>
-    <hyperlink r:id="rId389" ref="D214"/>
-    <hyperlink r:id="rId390" ref="I214"/>
-    <hyperlink r:id="rId391" ref="D215"/>
-    <hyperlink r:id="rId392" ref="I215"/>
-    <hyperlink r:id="rId393" ref="D216"/>
-    <hyperlink r:id="rId394" ref="D217"/>
-    <hyperlink r:id="rId395" ref="D218"/>
-    <hyperlink r:id="rId396" ref="D219"/>
-    <hyperlink r:id="rId397" ref="D220"/>
-    <hyperlink r:id="rId398" ref="D221"/>
-    <hyperlink r:id="rId399" ref="I221"/>
-    <hyperlink r:id="rId400" ref="D222"/>
-    <hyperlink r:id="rId401" ref="I222"/>
-    <hyperlink r:id="rId402" ref="D223"/>
-    <hyperlink r:id="rId403" ref="D224"/>
-    <hyperlink r:id="rId404" ref="I224"/>
-    <hyperlink r:id="rId405" ref="D225"/>
-    <hyperlink r:id="rId406" ref="D226"/>
-    <hyperlink r:id="rId407" ref="I226"/>
-    <hyperlink r:id="rId408" ref="D227"/>
-    <hyperlink r:id="rId409" ref="D228"/>
-    <hyperlink r:id="rId410" ref="D229"/>
-    <hyperlink r:id="rId411" ref="D230"/>
-    <hyperlink r:id="rId412" ref="H230"/>
-    <hyperlink r:id="rId413" ref="D231"/>
-    <hyperlink r:id="rId414" ref="D232"/>
-    <hyperlink r:id="rId415" ref="D233"/>
-    <hyperlink r:id="rId416" ref="D234"/>
-    <hyperlink r:id="rId417" ref="D235"/>
-    <hyperlink r:id="rId418" ref="D236"/>
-    <hyperlink r:id="rId419" ref="D237"/>
-    <hyperlink r:id="rId420" ref="D238"/>
-    <hyperlink r:id="rId421" ref="D239"/>
-    <hyperlink r:id="rId422" ref="D240"/>
-    <hyperlink r:id="rId423" ref="D241"/>
-    <hyperlink r:id="rId424" ref="L241"/>
-    <hyperlink r:id="rId425" ref="D242"/>
-    <hyperlink r:id="rId426" ref="D243"/>
-    <hyperlink r:id="rId427" ref="D244"/>
-    <hyperlink r:id="rId428" ref="D245"/>
-    <hyperlink r:id="rId429" ref="D246"/>
-    <hyperlink r:id="rId430" ref="I246"/>
-    <hyperlink r:id="rId431" ref="D247"/>
-    <hyperlink r:id="rId432" ref="I247"/>
-    <hyperlink r:id="rId433" ref="D248"/>
-    <hyperlink r:id="rId434" ref="I248"/>
-    <hyperlink r:id="rId435" ref="L248"/>
-    <hyperlink r:id="rId436" ref="D249"/>
-    <hyperlink r:id="rId437" ref="I249"/>
-    <hyperlink r:id="rId438" ref="D250"/>
-    <hyperlink r:id="rId439" ref="D251"/>
-    <hyperlink r:id="rId440" ref="D252"/>
-    <hyperlink r:id="rId441" ref="I252"/>
-    <hyperlink r:id="rId442" ref="B253"/>
-    <hyperlink r:id="rId443" ref="D253"/>
-    <hyperlink r:id="rId444" ref="I253"/>
-    <hyperlink r:id="rId445" ref="L253"/>
-    <hyperlink r:id="rId446" ref="D254"/>
-    <hyperlink r:id="rId447" ref="D255"/>
-    <hyperlink r:id="rId448" ref="I255"/>
-    <hyperlink r:id="rId449" ref="L255"/>
-    <hyperlink r:id="rId450" ref="D256"/>
-    <hyperlink r:id="rId451" ref="I256"/>
-    <hyperlink r:id="rId452" ref="L256"/>
-    <hyperlink r:id="rId453" ref="D257"/>
-    <hyperlink r:id="rId454" ref="D258"/>
-    <hyperlink r:id="rId455" ref="D259"/>
-    <hyperlink r:id="rId456" ref="D260"/>
-    <hyperlink r:id="rId457" ref="D261"/>
-    <hyperlink r:id="rId458" ref="D262"/>
-    <hyperlink r:id="rId459" ref="D263"/>
-    <hyperlink r:id="rId460" ref="I263"/>
-    <hyperlink r:id="rId461" ref="D264"/>
-    <hyperlink r:id="rId462" ref="I264"/>
-    <hyperlink r:id="rId463" ref="L264"/>
-    <hyperlink r:id="rId464" ref="D265"/>
-    <hyperlink r:id="rId465" ref="I265"/>
-    <hyperlink r:id="rId466" ref="D266"/>
-    <hyperlink r:id="rId467" ref="I266"/>
-    <hyperlink r:id="rId468" ref="D267"/>
-    <hyperlink r:id="rId469" ref="I267"/>
-    <hyperlink r:id="rId470" ref="D268"/>
-    <hyperlink r:id="rId471" ref="L268"/>
-    <hyperlink r:id="rId472" ref="D269"/>
-    <hyperlink r:id="rId473" ref="D270"/>
-    <hyperlink r:id="rId474" ref="D271"/>
-    <hyperlink r:id="rId475" ref="D272"/>
-    <hyperlink r:id="rId476" ref="I272"/>
-    <hyperlink r:id="rId477" ref="L272"/>
-    <hyperlink r:id="rId478" ref="D273"/>
-    <hyperlink r:id="rId479" ref="L273"/>
-    <hyperlink r:id="rId480" ref="D274"/>
-    <hyperlink r:id="rId481" ref="I274"/>
-    <hyperlink r:id="rId482" ref="D275"/>
-    <hyperlink r:id="rId483" ref="I275"/>
+    <hyperlink ref="D1" r:id="rId1"/>
+    <hyperlink ref="I1" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId6"/>
+    <hyperlink ref="D6" r:id="rId7"/>
+    <hyperlink ref="D7" r:id="rId8"/>
+    <hyperlink ref="I7" r:id="rId9"/>
+    <hyperlink ref="D8" r:id="rId10"/>
+    <hyperlink ref="I8" r:id="rId11"/>
+    <hyperlink ref="D9" r:id="rId12"/>
+    <hyperlink ref="I9" r:id="rId13"/>
+    <hyperlink ref="L9" r:id="rId14"/>
+    <hyperlink ref="D10" r:id="rId15"/>
+    <hyperlink ref="D11" r:id="rId16"/>
+    <hyperlink ref="D12" r:id="rId17"/>
+    <hyperlink ref="I12" r:id="rId18"/>
+    <hyperlink ref="L12" r:id="rId19"/>
+    <hyperlink ref="D13" r:id="rId20"/>
+    <hyperlink ref="I13" r:id="rId21"/>
+    <hyperlink ref="N13" r:id="rId22"/>
+    <hyperlink ref="D14" r:id="rId23"/>
+    <hyperlink ref="I14" r:id="rId24"/>
+    <hyperlink ref="N14" r:id="rId25"/>
+    <hyperlink ref="D15" r:id="rId26"/>
+    <hyperlink ref="D16" r:id="rId27"/>
+    <hyperlink ref="I16" r:id="rId28"/>
+    <hyperlink ref="L16" r:id="rId29"/>
+    <hyperlink ref="D17" r:id="rId30"/>
+    <hyperlink ref="I17" r:id="rId31" location="faq-5"/>
+    <hyperlink ref="L17" r:id="rId32"/>
+    <hyperlink ref="M17" r:id="rId33"/>
+    <hyperlink ref="D18" r:id="rId34"/>
+    <hyperlink ref="I18" r:id="rId35"/>
+    <hyperlink ref="D19" r:id="rId36"/>
+    <hyperlink ref="D20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="D21" r:id="rId39"/>
+    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="D22" r:id="rId41"/>
+    <hyperlink ref="I22" r:id="rId42"/>
+    <hyperlink ref="D23" r:id="rId43"/>
+    <hyperlink ref="I23" r:id="rId44"/>
+    <hyperlink ref="D24" r:id="rId45"/>
+    <hyperlink ref="I24" r:id="rId46"/>
+    <hyperlink ref="D25" r:id="rId47"/>
+    <hyperlink ref="D26" r:id="rId48"/>
+    <hyperlink ref="D27" r:id="rId49"/>
+    <hyperlink ref="D28" r:id="rId50"/>
+    <hyperlink ref="D29" r:id="rId51"/>
+    <hyperlink ref="I29" r:id="rId52"/>
+    <hyperlink ref="D30" r:id="rId53"/>
+    <hyperlink ref="I30" r:id="rId54"/>
+    <hyperlink ref="D31" r:id="rId55"/>
+    <hyperlink ref="I31" r:id="rId56"/>
+    <hyperlink ref="D32" r:id="rId57"/>
+    <hyperlink ref="I32" r:id="rId58" location="!/access_rights=open"/>
+    <hyperlink ref="D33" r:id="rId59"/>
+    <hyperlink ref="I33" r:id="rId60"/>
+    <hyperlink ref="D34" r:id="rId61"/>
+    <hyperlink ref="I34" r:id="rId62"/>
+    <hyperlink ref="D35" r:id="rId63"/>
+    <hyperlink ref="I35" r:id="rId64"/>
+    <hyperlink ref="L35" r:id="rId65"/>
+    <hyperlink ref="D36" r:id="rId66"/>
+    <hyperlink ref="I36" r:id="rId67"/>
+    <hyperlink ref="L36" r:id="rId68"/>
+    <hyperlink ref="D37" r:id="rId69"/>
+    <hyperlink ref="I37" r:id="rId70"/>
+    <hyperlink ref="L37" r:id="rId71"/>
+    <hyperlink ref="D38" r:id="rId72"/>
+    <hyperlink ref="I38" r:id="rId73"/>
+    <hyperlink ref="D39" r:id="rId74"/>
+    <hyperlink ref="I39" r:id="rId75"/>
+    <hyperlink ref="D40" r:id="rId76"/>
+    <hyperlink ref="I40" r:id="rId77"/>
+    <hyperlink ref="L40" r:id="rId78"/>
+    <hyperlink ref="M40" r:id="rId79"/>
+    <hyperlink ref="D41" r:id="rId80"/>
+    <hyperlink ref="D42" r:id="rId81"/>
+    <hyperlink ref="I42" r:id="rId82"/>
+    <hyperlink ref="D43" r:id="rId83"/>
+    <hyperlink ref="I43" r:id="rId84"/>
+    <hyperlink ref="D44" r:id="rId85"/>
+    <hyperlink ref="I44" r:id="rId86"/>
+    <hyperlink ref="D45" r:id="rId87"/>
+    <hyperlink ref="D46" r:id="rId88"/>
+    <hyperlink ref="I46" r:id="rId89"/>
+    <hyperlink ref="D47" r:id="rId90"/>
+    <hyperlink ref="D48" r:id="rId91"/>
+    <hyperlink ref="I48" r:id="rId92"/>
+    <hyperlink ref="D49" r:id="rId93"/>
+    <hyperlink ref="L49" r:id="rId94"/>
+    <hyperlink ref="D50" r:id="rId95"/>
+    <hyperlink ref="I50" r:id="rId96"/>
+    <hyperlink ref="D51" r:id="rId97"/>
+    <hyperlink ref="D52" r:id="rId98"/>
+    <hyperlink ref="I52" r:id="rId99"/>
+    <hyperlink ref="D53" r:id="rId100"/>
+    <hyperlink ref="I53" r:id="rId101"/>
+    <hyperlink ref="D54" r:id="rId102"/>
+    <hyperlink ref="D55" r:id="rId103"/>
+    <hyperlink ref="D56" r:id="rId104"/>
+    <hyperlink ref="D57" r:id="rId105"/>
+    <hyperlink ref="I57" r:id="rId106"/>
+    <hyperlink ref="D58" r:id="rId107"/>
+    <hyperlink ref="L58" r:id="rId108"/>
+    <hyperlink ref="D59" r:id="rId109"/>
+    <hyperlink ref="I59" r:id="rId110"/>
+    <hyperlink ref="D60" r:id="rId111"/>
+    <hyperlink ref="I60" r:id="rId112"/>
+    <hyperlink ref="L60" r:id="rId113"/>
+    <hyperlink ref="D61" r:id="rId114"/>
+    <hyperlink ref="I61" r:id="rId115"/>
+    <hyperlink ref="D62" r:id="rId116"/>
+    <hyperlink ref="I62" r:id="rId117"/>
+    <hyperlink ref="D63" r:id="rId118"/>
+    <hyperlink ref="I63" r:id="rId119"/>
+    <hyperlink ref="L63" r:id="rId120"/>
+    <hyperlink ref="D64" r:id="rId121"/>
+    <hyperlink ref="D65" r:id="rId122"/>
+    <hyperlink ref="D66" r:id="rId123"/>
+    <hyperlink ref="I66" r:id="rId124"/>
+    <hyperlink ref="D67" r:id="rId125"/>
+    <hyperlink ref="D68" r:id="rId126"/>
+    <hyperlink ref="I68" r:id="rId127"/>
+    <hyperlink ref="L68" r:id="rId128"/>
+    <hyperlink ref="D69" r:id="rId129"/>
+    <hyperlink ref="I69" r:id="rId130"/>
+    <hyperlink ref="D70" r:id="rId131"/>
+    <hyperlink ref="I70" r:id="rId132"/>
+    <hyperlink ref="L70" r:id="rId133"/>
+    <hyperlink ref="D71" r:id="rId134"/>
+    <hyperlink ref="I71" r:id="rId135"/>
+    <hyperlink ref="D72" r:id="rId136"/>
+    <hyperlink ref="I72" r:id="rId137"/>
+    <hyperlink ref="D73" r:id="rId138"/>
+    <hyperlink ref="D74" r:id="rId139"/>
+    <hyperlink ref="I74" r:id="rId140"/>
+    <hyperlink ref="L74" r:id="rId141"/>
+    <hyperlink ref="D75" r:id="rId142"/>
+    <hyperlink ref="D76" r:id="rId143"/>
+    <hyperlink ref="L76" r:id="rId144"/>
+    <hyperlink ref="M76" r:id="rId145"/>
+    <hyperlink ref="D77" r:id="rId146"/>
+    <hyperlink ref="I77" r:id="rId147"/>
+    <hyperlink ref="D78" r:id="rId148"/>
+    <hyperlink ref="D79" r:id="rId149"/>
+    <hyperlink ref="D80" r:id="rId150"/>
+    <hyperlink ref="D81" r:id="rId151"/>
+    <hyperlink ref="D82" r:id="rId152"/>
+    <hyperlink ref="D83" r:id="rId153"/>
+    <hyperlink ref="D84" r:id="rId154"/>
+    <hyperlink ref="D85" r:id="rId155"/>
+    <hyperlink ref="D86" r:id="rId156"/>
+    <hyperlink ref="D87" r:id="rId157"/>
+    <hyperlink ref="D88" r:id="rId158"/>
+    <hyperlink ref="D89" r:id="rId159"/>
+    <hyperlink ref="D90" r:id="rId160"/>
+    <hyperlink ref="D91" r:id="rId161"/>
+    <hyperlink ref="D92" r:id="rId162"/>
+    <hyperlink ref="D93" r:id="rId163"/>
+    <hyperlink ref="D94" r:id="rId164"/>
+    <hyperlink ref="D95" r:id="rId165" location="overviewlinkSection"/>
+    <hyperlink ref="D96" r:id="rId166"/>
+    <hyperlink ref="I96" r:id="rId167" location="benefitsSection"/>
+    <hyperlink ref="L96" r:id="rId168"/>
+    <hyperlink ref="D97" r:id="rId169"/>
+    <hyperlink ref="L97" r:id="rId170"/>
+    <hyperlink ref="D98" r:id="rId171"/>
+    <hyperlink ref="I98" r:id="rId172"/>
+    <hyperlink ref="D99" r:id="rId173"/>
+    <hyperlink ref="L99" r:id="rId174"/>
+    <hyperlink ref="D100" r:id="rId175"/>
+    <hyperlink ref="D101" r:id="rId176"/>
+    <hyperlink ref="I101" r:id="rId177"/>
+    <hyperlink ref="D102" r:id="rId178"/>
+    <hyperlink ref="I102" r:id="rId179"/>
+    <hyperlink ref="L102" r:id="rId180"/>
+    <hyperlink ref="D103" r:id="rId181"/>
+    <hyperlink ref="I103" r:id="rId182"/>
+    <hyperlink ref="L103" r:id="rId183"/>
+    <hyperlink ref="D104" r:id="rId184"/>
+    <hyperlink ref="I104" r:id="rId185"/>
+    <hyperlink ref="L104" r:id="rId186"/>
+    <hyperlink ref="D105" r:id="rId187"/>
+    <hyperlink ref="D106" r:id="rId188"/>
+    <hyperlink ref="I106" r:id="rId189"/>
+    <hyperlink ref="L106" r:id="rId190"/>
+    <hyperlink ref="M106" r:id="rId191"/>
+    <hyperlink ref="D107" r:id="rId192"/>
+    <hyperlink ref="I107" r:id="rId193"/>
+    <hyperlink ref="L107" r:id="rId194"/>
+    <hyperlink ref="D108" r:id="rId195"/>
+    <hyperlink ref="I108" r:id="rId196"/>
+    <hyperlink ref="D109" r:id="rId197"/>
+    <hyperlink ref="D110" r:id="rId198"/>
+    <hyperlink ref="D111" r:id="rId199"/>
+    <hyperlink ref="I111" r:id="rId200"/>
+    <hyperlink ref="D112" r:id="rId201"/>
+    <hyperlink ref="I112" r:id="rId202"/>
+    <hyperlink ref="D113" r:id="rId203"/>
+    <hyperlink ref="I113" r:id="rId204"/>
+    <hyperlink ref="D114" r:id="rId205"/>
+    <hyperlink ref="I114" r:id="rId206"/>
+    <hyperlink ref="D115" r:id="rId207"/>
+    <hyperlink ref="I115" r:id="rId208"/>
+    <hyperlink ref="D116" r:id="rId209"/>
+    <hyperlink ref="I116" r:id="rId210"/>
+    <hyperlink ref="D117" r:id="rId211"/>
+    <hyperlink ref="I117" r:id="rId212"/>
+    <hyperlink ref="D118" r:id="rId213"/>
+    <hyperlink ref="I118" r:id="rId214"/>
+    <hyperlink ref="D119" r:id="rId215"/>
+    <hyperlink ref="I119" r:id="rId216"/>
+    <hyperlink ref="L119" r:id="rId217"/>
+    <hyperlink ref="M119" r:id="rId218"/>
+    <hyperlink ref="D120" r:id="rId219"/>
+    <hyperlink ref="I120" r:id="rId220"/>
+    <hyperlink ref="D121" r:id="rId221"/>
+    <hyperlink ref="D122" r:id="rId222"/>
+    <hyperlink ref="I122" r:id="rId223"/>
+    <hyperlink ref="D123" r:id="rId224"/>
+    <hyperlink ref="I123" r:id="rId225"/>
+    <hyperlink ref="L123" r:id="rId226"/>
+    <hyperlink ref="D124" r:id="rId227"/>
+    <hyperlink ref="I124" r:id="rId228"/>
+    <hyperlink ref="L124" r:id="rId229"/>
+    <hyperlink ref="D125" r:id="rId230"/>
+    <hyperlink ref="I125" r:id="rId231"/>
+    <hyperlink ref="L125" r:id="rId232"/>
+    <hyperlink ref="D126" r:id="rId233"/>
+    <hyperlink ref="D127" r:id="rId234"/>
+    <hyperlink ref="L127" r:id="rId235"/>
+    <hyperlink ref="D128" r:id="rId236"/>
+    <hyperlink ref="I128" r:id="rId237"/>
+    <hyperlink ref="D129" r:id="rId238"/>
+    <hyperlink ref="I129" r:id="rId239"/>
+    <hyperlink ref="L129" r:id="rId240"/>
+    <hyperlink ref="D130" r:id="rId241"/>
+    <hyperlink ref="I130" r:id="rId242"/>
+    <hyperlink ref="D131" r:id="rId243"/>
+    <hyperlink ref="D132" r:id="rId244"/>
+    <hyperlink ref="D133" r:id="rId245"/>
+    <hyperlink ref="D134" r:id="rId246"/>
+    <hyperlink ref="D135" r:id="rId247"/>
+    <hyperlink ref="I135" r:id="rId248"/>
+    <hyperlink ref="L135" r:id="rId249"/>
+    <hyperlink ref="M135" r:id="rId250"/>
+    <hyperlink ref="D136" r:id="rId251"/>
+    <hyperlink ref="D137" r:id="rId252"/>
+    <hyperlink ref="D138" r:id="rId253"/>
+    <hyperlink ref="D139" r:id="rId254"/>
+    <hyperlink ref="D140" r:id="rId255"/>
+    <hyperlink ref="D141" r:id="rId256"/>
+    <hyperlink ref="I141" r:id="rId257"/>
+    <hyperlink ref="L141" r:id="rId258"/>
+    <hyperlink ref="M141" r:id="rId259"/>
+    <hyperlink ref="D142" r:id="rId260"/>
+    <hyperlink ref="D143" r:id="rId261"/>
+    <hyperlink ref="I143" r:id="rId262"/>
+    <hyperlink ref="D144" r:id="rId263"/>
+    <hyperlink ref="L144" r:id="rId264"/>
+    <hyperlink ref="D145" r:id="rId265"/>
+    <hyperlink ref="I145" r:id="rId266"/>
+    <hyperlink ref="D146" r:id="rId267"/>
+    <hyperlink ref="I146" r:id="rId268"/>
+    <hyperlink ref="D147" r:id="rId269"/>
+    <hyperlink ref="N147" r:id="rId270"/>
+    <hyperlink ref="D148" r:id="rId271"/>
+    <hyperlink ref="D149" r:id="rId272"/>
+    <hyperlink ref="I149" r:id="rId273"/>
+    <hyperlink ref="D150" r:id="rId274"/>
+    <hyperlink ref="I150" r:id="rId275"/>
+    <hyperlink ref="D151" r:id="rId276"/>
+    <hyperlink ref="I151" r:id="rId277"/>
+    <hyperlink ref="L151" r:id="rId278"/>
+    <hyperlink ref="M151" r:id="rId279"/>
+    <hyperlink ref="D152" r:id="rId280"/>
+    <hyperlink ref="I152" r:id="rId281"/>
+    <hyperlink ref="D153" r:id="rId282"/>
+    <hyperlink ref="I153" r:id="rId283"/>
+    <hyperlink ref="L153" r:id="rId284"/>
+    <hyperlink ref="M153" r:id="rId285"/>
+    <hyperlink ref="D154" r:id="rId286"/>
+    <hyperlink ref="I154" r:id="rId287"/>
+    <hyperlink ref="L154" r:id="rId288"/>
+    <hyperlink ref="M154" r:id="rId289"/>
+    <hyperlink ref="D155" r:id="rId290"/>
+    <hyperlink ref="I155" r:id="rId291"/>
+    <hyperlink ref="D156" r:id="rId292"/>
+    <hyperlink ref="I156" r:id="rId293"/>
+    <hyperlink ref="D157" r:id="rId294"/>
+    <hyperlink ref="I157" r:id="rId295"/>
+    <hyperlink ref="D158" r:id="rId296"/>
+    <hyperlink ref="I158" r:id="rId297"/>
+    <hyperlink ref="L158" r:id="rId298"/>
+    <hyperlink ref="D159" r:id="rId299"/>
+    <hyperlink ref="I159" r:id="rId300"/>
+    <hyperlink ref="L159" r:id="rId301"/>
+    <hyperlink ref="M159" r:id="rId302"/>
+    <hyperlink ref="D160" r:id="rId303"/>
+    <hyperlink ref="I160" r:id="rId304"/>
+    <hyperlink ref="D161" r:id="rId305"/>
+    <hyperlink ref="D162" r:id="rId306"/>
+    <hyperlink ref="I162" r:id="rId307"/>
+    <hyperlink ref="D163" r:id="rId308"/>
+    <hyperlink ref="I163" r:id="rId309"/>
+    <hyperlink ref="L163" r:id="rId310"/>
+    <hyperlink ref="D164" r:id="rId311"/>
+    <hyperlink ref="I164" r:id="rId312"/>
+    <hyperlink ref="D165" r:id="rId313"/>
+    <hyperlink ref="D166" r:id="rId314"/>
+    <hyperlink ref="D167" r:id="rId315"/>
+    <hyperlink ref="I167" r:id="rId316"/>
+    <hyperlink ref="D168" r:id="rId317"/>
+    <hyperlink ref="I168" r:id="rId318"/>
+    <hyperlink ref="D169" r:id="rId319"/>
+    <hyperlink ref="I169" r:id="rId320"/>
+    <hyperlink ref="D170" r:id="rId321"/>
+    <hyperlink ref="D171" r:id="rId322"/>
+    <hyperlink ref="D172" r:id="rId323"/>
+    <hyperlink ref="D173" r:id="rId324"/>
+    <hyperlink ref="I173" r:id="rId325"/>
+    <hyperlink ref="D174" r:id="rId326"/>
+    <hyperlink ref="I174" r:id="rId327"/>
+    <hyperlink ref="D175" r:id="rId328"/>
+    <hyperlink ref="D176" r:id="rId329"/>
+    <hyperlink ref="I176" r:id="rId330"/>
+    <hyperlink ref="D177" r:id="rId331"/>
+    <hyperlink ref="D178" r:id="rId332"/>
+    <hyperlink ref="I178" r:id="rId333"/>
+    <hyperlink ref="D179" r:id="rId334"/>
+    <hyperlink ref="D180" r:id="rId335"/>
+    <hyperlink ref="I180" r:id="rId336"/>
+    <hyperlink ref="D181" r:id="rId337"/>
+    <hyperlink ref="I181" r:id="rId338"/>
+    <hyperlink ref="D182" r:id="rId339"/>
+    <hyperlink ref="D183" r:id="rId340"/>
+    <hyperlink ref="I183" r:id="rId341"/>
+    <hyperlink ref="L183" r:id="rId342"/>
+    <hyperlink ref="D184" r:id="rId343"/>
+    <hyperlink ref="I184" r:id="rId344" location="4"/>
+    <hyperlink ref="D185" r:id="rId345"/>
+    <hyperlink ref="D186" r:id="rId346"/>
+    <hyperlink ref="D187" r:id="rId347"/>
+    <hyperlink ref="D188" r:id="rId348"/>
+    <hyperlink ref="D189" r:id="rId349"/>
+    <hyperlink ref="I189" r:id="rId350"/>
+    <hyperlink ref="D190" r:id="rId351"/>
+    <hyperlink ref="I190" r:id="rId352"/>
+    <hyperlink ref="D191" r:id="rId353"/>
+    <hyperlink ref="D192" r:id="rId354"/>
+    <hyperlink ref="D193" r:id="rId355"/>
+    <hyperlink ref="D194" r:id="rId356"/>
+    <hyperlink ref="D195" r:id="rId357"/>
+    <hyperlink ref="I195" r:id="rId358"/>
+    <hyperlink ref="D196" r:id="rId359"/>
+    <hyperlink ref="I196" r:id="rId360"/>
+    <hyperlink ref="D197" r:id="rId361"/>
+    <hyperlink ref="D198" r:id="rId362"/>
+    <hyperlink ref="I198" r:id="rId363"/>
+    <hyperlink ref="D199" r:id="rId364"/>
+    <hyperlink ref="I199" r:id="rId365"/>
+    <hyperlink ref="D200" r:id="rId366"/>
+    <hyperlink ref="I200" r:id="rId367"/>
+    <hyperlink ref="D201" r:id="rId368"/>
+    <hyperlink ref="D202" r:id="rId369"/>
+    <hyperlink ref="I202" r:id="rId370"/>
+    <hyperlink ref="D203" r:id="rId371"/>
+    <hyperlink ref="I203" r:id="rId372"/>
+    <hyperlink ref="D204" r:id="rId373"/>
+    <hyperlink ref="D205" r:id="rId374"/>
+    <hyperlink ref="I205" r:id="rId375"/>
+    <hyperlink ref="D206" r:id="rId376"/>
+    <hyperlink ref="I206" r:id="rId377"/>
+    <hyperlink ref="D207" r:id="rId378"/>
+    <hyperlink ref="D208" r:id="rId379"/>
+    <hyperlink ref="D209" r:id="rId380"/>
+    <hyperlink ref="D210" r:id="rId381"/>
+    <hyperlink ref="I210" r:id="rId382"/>
+    <hyperlink ref="D211" r:id="rId383"/>
+    <hyperlink ref="I211" r:id="rId384"/>
+    <hyperlink ref="D212" r:id="rId385"/>
+    <hyperlink ref="D213" r:id="rId386"/>
+    <hyperlink ref="I213" r:id="rId387"/>
+    <hyperlink ref="L213" r:id="rId388"/>
+    <hyperlink ref="D214" r:id="rId389"/>
+    <hyperlink ref="I214" r:id="rId390"/>
+    <hyperlink ref="D215" r:id="rId391"/>
+    <hyperlink ref="I215" r:id="rId392"/>
+    <hyperlink ref="D216" r:id="rId393"/>
+    <hyperlink ref="D217" r:id="rId394"/>
+    <hyperlink ref="D218" r:id="rId395"/>
+    <hyperlink ref="D219" r:id="rId396"/>
+    <hyperlink ref="D220" r:id="rId397"/>
+    <hyperlink ref="D221" r:id="rId398"/>
+    <hyperlink ref="I221" r:id="rId399"/>
+    <hyperlink ref="D222" r:id="rId400"/>
+    <hyperlink ref="I222" r:id="rId401"/>
+    <hyperlink ref="D223" r:id="rId402"/>
+    <hyperlink ref="D224" r:id="rId403"/>
+    <hyperlink ref="I224" r:id="rId404"/>
+    <hyperlink ref="D225" r:id="rId405"/>
+    <hyperlink ref="D226" r:id="rId406"/>
+    <hyperlink ref="I226" r:id="rId407"/>
+    <hyperlink ref="D227" r:id="rId408"/>
+    <hyperlink ref="D228" r:id="rId409"/>
+    <hyperlink ref="D229" r:id="rId410"/>
+    <hyperlink ref="D230" r:id="rId411"/>
+    <hyperlink ref="H230" r:id="rId412"/>
+    <hyperlink ref="D231" r:id="rId413"/>
+    <hyperlink ref="D232" r:id="rId414"/>
+    <hyperlink ref="D233" r:id="rId415"/>
+    <hyperlink ref="D234" r:id="rId416"/>
+    <hyperlink ref="D235" r:id="rId417"/>
+    <hyperlink ref="D236" r:id="rId418"/>
+    <hyperlink ref="D237" r:id="rId419"/>
+    <hyperlink ref="D238" r:id="rId420"/>
+    <hyperlink ref="D239" r:id="rId421"/>
+    <hyperlink ref="D240" r:id="rId422"/>
+    <hyperlink ref="D241" r:id="rId423"/>
+    <hyperlink ref="L241" r:id="rId424"/>
+    <hyperlink ref="D242" r:id="rId425"/>
+    <hyperlink ref="D243" r:id="rId426"/>
+    <hyperlink ref="D244" r:id="rId427"/>
+    <hyperlink ref="D245" r:id="rId428"/>
+    <hyperlink ref="D246" r:id="rId429"/>
+    <hyperlink ref="I246" r:id="rId430"/>
+    <hyperlink ref="D247" r:id="rId431"/>
+    <hyperlink ref="I247" r:id="rId432"/>
+    <hyperlink ref="D248" r:id="rId433"/>
+    <hyperlink ref="I248" r:id="rId434"/>
+    <hyperlink ref="L248" r:id="rId435"/>
+    <hyperlink ref="D249" r:id="rId436"/>
+    <hyperlink ref="I249" r:id="rId437"/>
+    <hyperlink ref="D250" r:id="rId438"/>
+    <hyperlink ref="D251" r:id="rId439"/>
+    <hyperlink ref="D252" r:id="rId440"/>
+    <hyperlink ref="I252" r:id="rId441"/>
+    <hyperlink ref="B253" r:id="rId442"/>
+    <hyperlink ref="D253" r:id="rId443"/>
+    <hyperlink ref="I253" r:id="rId444"/>
+    <hyperlink ref="L253" r:id="rId445"/>
+    <hyperlink ref="D254" r:id="rId446"/>
+    <hyperlink ref="D255" r:id="rId447"/>
+    <hyperlink ref="I255" r:id="rId448"/>
+    <hyperlink ref="L255" r:id="rId449"/>
+    <hyperlink ref="D256" r:id="rId450"/>
+    <hyperlink ref="I256" r:id="rId451"/>
+    <hyperlink ref="L256" r:id="rId452"/>
+    <hyperlink ref="D257" r:id="rId453"/>
+    <hyperlink ref="D258" r:id="rId454"/>
+    <hyperlink ref="D259" r:id="rId455"/>
+    <hyperlink ref="D260" r:id="rId456"/>
+    <hyperlink ref="D261" r:id="rId457"/>
+    <hyperlink ref="D262" r:id="rId458"/>
+    <hyperlink ref="D263" r:id="rId459"/>
+    <hyperlink ref="I263" r:id="rId460"/>
+    <hyperlink ref="D264" r:id="rId461"/>
+    <hyperlink ref="I264" r:id="rId462"/>
+    <hyperlink ref="L264" r:id="rId463"/>
+    <hyperlink ref="D265" r:id="rId464"/>
+    <hyperlink ref="I265" r:id="rId465"/>
+    <hyperlink ref="D266" r:id="rId466"/>
+    <hyperlink ref="I266" r:id="rId467"/>
+    <hyperlink ref="D267" r:id="rId468"/>
+    <hyperlink ref="I267" r:id="rId469"/>
+    <hyperlink ref="D268" r:id="rId470"/>
+    <hyperlink ref="L268" r:id="rId471"/>
+    <hyperlink ref="D269" r:id="rId472"/>
+    <hyperlink ref="D270" r:id="rId473"/>
+    <hyperlink ref="D271" r:id="rId474"/>
+    <hyperlink ref="D272" r:id="rId475"/>
+    <hyperlink ref="I272" r:id="rId476"/>
+    <hyperlink ref="L272" r:id="rId477"/>
+    <hyperlink ref="D273" r:id="rId478"/>
+    <hyperlink ref="L273" r:id="rId479"/>
+    <hyperlink ref="D274" r:id="rId480"/>
+    <hyperlink ref="I274" r:id="rId481"/>
+    <hyperlink ref="D275" r:id="rId482"/>
+    <hyperlink ref="I275" r:id="rId483"/>
   </hyperlinks>
-  <drawing r:id="rId484"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>